--- a/src/resources/data/users.xlsx
+++ b/src/resources/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mazen.Yousri\Downloads\playwright-sample-project-master\playwright-sample-project-master\src\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FE12B6-2530-4CBC-875F-F169AB9DB080}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F604136-99E0-4674-BC99-9D88CF7CCF0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
